--- a/database/seeds/heart.xlsx
+++ b/database/seeds/heart.xlsx
@@ -626,9 +626,6 @@
     <t xml:space="preserve">Low sodium varieties of these common foods can be found on supermarket shelves next to these items, and are healthier choices for people with heart disease. </t>
   </si>
   <si>
-    <t>Hint #</t>
-  </si>
-  <si>
     <t>Heart Failure</t>
   </si>
   <si>
@@ -636,6 +633,9 @@
   </si>
   <si>
     <t>CONTENT</t>
+  </si>
+  <si>
+    <t>HINT #</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,13 +1019,13 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B29">
         <v>7</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34">
         <v>8</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B38">
         <v>9</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B43">
         <v>10</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B47">
         <v>11</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55">
         <v>13</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B59">
         <v>14</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64">
         <v>15</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B69">
         <v>16</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B74">
         <v>17</v>
@@ -1796,7 +1796,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B78">
         <v>18</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B83">
         <v>19</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B88">
         <v>20</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B92">
         <v>21</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B96">
         <v>22</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B101">
         <v>23</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B106">
         <v>24</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B110">
         <v>25</v>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B115">
         <v>26</v>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B120">
         <v>27</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B125">
         <v>28</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B129">
         <v>29</v>

--- a/database/seeds/heart.xlsx
+++ b/database/seeds/heart.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amahamed\Projects\unmc-mhealth\database\seeds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colleen\Desktop\GA Research Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175C3A2-1EEA-446B-99BD-7F744B102CBB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -161,6 +156,9 @@
     <t>Weigh yourself when you get home from work.</t>
   </si>
   <si>
+    <t>Heart Failure Health Information Tips (HITS)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Many people experience shortness of breath, especially with exercise or activity. </t>
   </si>
   <si>
@@ -551,9 +549,6 @@
     <t>T/F: A pill organizer is one way to help keep track of the many medications that a person with heart failure must take.</t>
   </si>
   <si>
-    <t xml:space="preserve">Gaining two pounds, two days in a row, or five pounds in one week is not normal. </t>
-  </si>
-  <si>
     <t xml:space="preserve">This could be the earliest sign that your body is holding onto excess fluid. </t>
   </si>
   <si>
@@ -563,9 +558,6 @@
     <t xml:space="preserve">You should also make sure you are staying within your sodium and fluid limitations. </t>
   </si>
   <si>
-    <t>Gaining _____ pounds in one week is not normal for people living with heart failure.</t>
-  </si>
-  <si>
     <t xml:space="preserve">It is important to know your limits and stop exercising if you start to feel unwell. </t>
   </si>
   <si>
@@ -626,22 +618,25 @@
     <t xml:space="preserve">Low sodium varieties of these common foods can be found on supermarket shelves next to these items, and are healthier choices for people with heart disease. </t>
   </si>
   <si>
+    <t>Category / Disease State</t>
+  </si>
+  <si>
+    <t>Hint #</t>
+  </si>
+  <si>
     <t>Heart Failure</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>CONTENT</t>
-  </si>
-  <si>
-    <t>HINT #</t>
+    <t xml:space="preserve">Gaining three pounds overnight, or five pounds since discharge from the hospital is abnormal and your doctor needs to be notified. </t>
+  </si>
+  <si>
+    <t>You should call your doctor if you gain _______ pounds overnight.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -998,34 +993,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="149.5703125" customWidth="1"/>
-    <col min="4" max="4" width="95.7109375" customWidth="1"/>
+    <col min="3" max="3" width="149.5546875" customWidth="1"/>
+    <col min="4" max="4" width="95.6640625" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
-    <col min="6" max="6" width="46.42578125" customWidth="1"/>
-    <col min="7" max="7" width="54.5703125" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="46.44140625" customWidth="1"/>
+    <col min="7" max="7" width="54.5546875" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1049,9 +1044,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1078,42 +1073,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" t="s">
-        <v>64</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1122,40 +1117,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" t="s">
-        <v>70</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -1164,26 +1159,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1195,12 +1190,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -1212,22 +1207,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1257,24 +1252,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1301,36 +1296,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1342,42 +1337,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -1386,87 +1381,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C36" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B38">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C40" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G43" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H43" t="s">
         <v>15</v>
@@ -1475,43 +1470,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B47">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" t="s">
         <v>181</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>182</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>183</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>184</v>
-      </c>
-      <c r="H47" t="s">
-        <v>185</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
@@ -1520,22 +1515,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C49" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C49" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1553,7 +1548,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
@@ -1562,31 +1557,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B55">
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E55">
         <v>18</v>
@@ -1604,31 +1599,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C57" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59">
         <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E59">
         <v>0.5</v>
@@ -1640,33 +1635,33 @@
         <v>2</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J59" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B64">
         <v>15</v>
@@ -1675,7 +1670,7 @@
         <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -1687,36 +1682,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B69">
         <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E69">
         <v>3500</v>
@@ -1734,48 +1729,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B74">
         <v>17</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" t="s">
         <v>192</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>193</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>194</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>195</v>
-      </c>
-      <c r="H74" t="s">
-        <v>196</v>
       </c>
       <c r="I74" t="s">
         <v>15</v>
@@ -1784,40 +1779,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B78">
         <v>18</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" t="s">
         <v>50</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>49</v>
       </c>
-      <c r="G78" t="s">
-        <v>48</v>
-      </c>
       <c r="H78" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I78" t="s">
         <v>15</v>
@@ -1826,42 +1821,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C79" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
@@ -1870,36 +1865,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B88">
         <v>20</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -1911,28 +1906,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B92">
         <v>21</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -1944,43 +1939,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B96">
         <v>22</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F96" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H96" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
@@ -1989,45 +1984,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B101">
         <v>23</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D101" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E101" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F101" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G101" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
@@ -2036,33 +2031,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C103" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C104" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B106">
         <v>24</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E106" t="b">
         <v>1</v>
@@ -2074,40 +2069,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C107" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C108" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B110">
         <v>25</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E110" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G110" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H110" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I110" t="s">
         <v>15</v>
@@ -2116,33 +2111,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C111" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C112" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C113" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B115">
         <v>26</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -2154,33 +2149,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C116" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C117" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C118" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C118" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B120">
         <v>27</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -2192,33 +2187,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C121" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C122" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C123" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C122" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C123" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B125">
         <v>28</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D125" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E125" t="b">
         <v>1</v>
@@ -2230,28 +2225,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C126" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C127" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B129">
         <v>29</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D129" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -2263,14 +2258,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C130" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C131" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeds/heart.xlsx
+++ b/database/seeds/heart.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colleen\Desktop\GA Research Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amahamed\Projects\unmc-mhealth\database\seeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1175C3A2-1EEA-446B-99BD-7F744B102CBB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,9 +155,6 @@
     <t>Weigh yourself when you get home from work.</t>
   </si>
   <si>
-    <t>Heart Failure Health Information Tips (HITS)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Many people experience shortness of breath, especially with exercise or activity. </t>
   </si>
   <si>
@@ -621,9 +617,6 @@
     <t>Category / Disease State</t>
   </si>
   <si>
-    <t>Hint #</t>
-  </si>
-  <si>
     <t>Heart Failure</t>
   </si>
   <si>
@@ -631,12 +624,18 @@
   </si>
   <si>
     <t>You should call your doctor if you gain _______ pounds overnight.</t>
+  </si>
+  <si>
+    <t>HINT #</t>
+  </si>
+  <si>
+    <t>CONTENT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -993,34 +992,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="149.5546875" customWidth="1"/>
-    <col min="4" max="4" width="95.6640625" customWidth="1"/>
+    <col min="3" max="3" width="149.5703125" customWidth="1"/>
+    <col min="4" max="4" width="95.7109375" customWidth="1"/>
     <col min="5" max="5" width="65" customWidth="1"/>
-    <col min="6" max="6" width="46.44140625" customWidth="1"/>
-    <col min="7" max="7" width="54.5546875" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="54.5703125" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1044,9 +1043,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1073,42 +1072,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" t="s">
         <v>62</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>63</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" t="s">
-        <v>65</v>
       </c>
       <c r="H7" t="s">
         <v>15</v>
@@ -1117,40 +1116,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
         <v>70</v>
-      </c>
-      <c r="F11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" t="s">
-        <v>71</v>
       </c>
       <c r="H11" t="s">
         <v>15</v>
@@ -1159,26 +1158,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1190,12 +1189,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -1207,22 +1206,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1252,24 +1251,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24">
         <v>6</v>
@@ -1296,36 +1295,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C25" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B29">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1337,42 +1336,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B34">
         <v>8</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
         <v>87</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>88</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>89</v>
-      </c>
-      <c r="G34" t="s">
-        <v>90</v>
       </c>
       <c r="H34" t="s">
         <v>15</v>
@@ -1381,87 +1380,87 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B38">
         <v>9</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" t="s">
         <v>95</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>96</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>97</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>98</v>
-      </c>
-      <c r="H38" t="s">
-        <v>99</v>
       </c>
       <c r="J38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C40" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C41" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B43">
         <v>10</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" t="s">
         <v>158</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>159</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>160</v>
-      </c>
-      <c r="G43" t="s">
-        <v>161</v>
       </c>
       <c r="H43" t="s">
         <v>15</v>
@@ -1470,43 +1469,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B47">
         <v>11</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D47" t="s">
+        <v>179</v>
+      </c>
+      <c r="E47" t="s">
         <v>180</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>181</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>182</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>183</v>
-      </c>
-      <c r="H47" t="s">
-        <v>184</v>
       </c>
       <c r="I47" t="s">
         <v>15</v>
@@ -1515,22 +1514,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C48" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C49" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B51">
         <v>12</v>
@@ -1548,7 +1547,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H51" t="s">
         <v>42</v>
@@ -1557,31 +1556,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B55">
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E55">
         <v>18</v>
@@ -1599,31 +1598,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C57" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B59">
         <v>14</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E59">
         <v>0.5</v>
@@ -1641,27 +1640,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C61" s="1" t="s">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C62" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B64">
         <v>15</v>
@@ -1670,7 +1669,7 @@
         <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -1682,36 +1681,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C65" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C66" s="1" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C67" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B69">
         <v>16</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E69">
         <v>3500</v>
@@ -1729,48 +1728,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C70" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C71" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C71" s="1" t="s">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C72" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C72" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B74">
         <v>17</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D74" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" t="s">
         <v>191</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>192</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>193</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>194</v>
-      </c>
-      <c r="H74" t="s">
-        <v>195</v>
       </c>
       <c r="I74" t="s">
         <v>15</v>
@@ -1779,40 +1778,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C75" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C76" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B78">
         <v>18</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+      <c r="F78" t="s">
+        <v>49</v>
+      </c>
+      <c r="G78" t="s">
         <v>48</v>
       </c>
-      <c r="E78" t="s">
+      <c r="H78" t="s">
         <v>51</v>
-      </c>
-      <c r="F78" t="s">
-        <v>50</v>
-      </c>
-      <c r="G78" t="s">
-        <v>49</v>
-      </c>
-      <c r="H78" t="s">
-        <v>52</v>
       </c>
       <c r="I78" t="s">
         <v>15</v>
@@ -1821,42 +1820,42 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C79" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C80" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C81" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B83">
         <v>19</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D83" t="s">
+        <v>55</v>
+      </c>
+      <c r="E83" t="s">
         <v>56</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>57</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>58</v>
-      </c>
-      <c r="G83" t="s">
-        <v>59</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
@@ -1865,36 +1864,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C84" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C85" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C86" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B88">
         <v>20</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D88" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -1906,28 +1905,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C89" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C90" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B92">
         <v>21</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -1939,43 +1938,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C93" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C94" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B96">
         <v>22</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D96" t="s">
         <v>149</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E96" t="s">
         <v>150</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>151</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>152</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>153</v>
-      </c>
-      <c r="H96" t="s">
-        <v>154</v>
       </c>
       <c r="I96" t="s">
         <v>15</v>
@@ -1984,45 +1983,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C97" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C98" s="1" t="s">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C99" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B101">
         <v>23</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D101" t="s">
+        <v>165</v>
+      </c>
+      <c r="E101" t="s">
         <v>166</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>167</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>168</v>
-      </c>
-      <c r="G101" t="s">
-        <v>169</v>
       </c>
       <c r="H101" t="s">
         <v>15</v>
@@ -2031,33 +2030,33 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C102" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C103" s="1" t="s">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C104" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B106">
         <v>24</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E106" t="b">
         <v>1</v>
@@ -2069,40 +2068,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C107" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C108" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C108" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B110">
         <v>25</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D110" t="s">
+        <v>121</v>
+      </c>
+      <c r="E110" t="s">
         <v>122</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>123</v>
       </c>
-      <c r="F110" t="s">
+      <c r="G110" t="s">
         <v>124</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>125</v>
-      </c>
-      <c r="H110" t="s">
-        <v>126</v>
       </c>
       <c r="I110" t="s">
         <v>15</v>
@@ -2111,33 +2110,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C111" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C112" s="1" t="s">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C113" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B115">
         <v>26</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D115" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E115" t="b">
         <v>1</v>
@@ -2149,33 +2148,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C116" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C117" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C118" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C117" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C118" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B120">
         <v>27</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E120" t="b">
         <v>1</v>
@@ -2187,33 +2186,33 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C121" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C122" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C123" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C123" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B125">
         <v>28</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D125" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E125" t="b">
         <v>1</v>
@@ -2225,28 +2224,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C126" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C127" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C127" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B129">
         <v>29</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D129" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E129" t="b">
         <v>1</v>
@@ -2258,14 +2257,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C130" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C131" s="1" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C131" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
